--- a/panic_modal_sum.xlsx
+++ b/panic_modal_sum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF517346-E7AB-4092-88C1-3C53C5CA74B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7326CFD4-75AA-437D-B9A4-81ADD06B85EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -398,7 +398,7 @@
   <dimension ref="A1:B291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/panic_modal_sum.xlsx
+++ b/panic_modal_sum.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\stocks-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7326CFD4-75AA-437D-B9A4-81ADD06B85EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BCE65E-E92D-4807-B023-16DD2DD8F29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,1434 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="476">
   <si>
     <t>Date</t>
   </si>
   <si>
     <t>pamic_modal_sum</t>
+  </si>
+  <si>
+    <t>2016-01-04</t>
+  </si>
+  <si>
+    <t>2016-01-11</t>
+  </si>
+  <si>
+    <t>2016-01-18</t>
+  </si>
+  <si>
+    <t>2016-01-25</t>
+  </si>
+  <si>
+    <t>2016-02-01</t>
+  </si>
+  <si>
+    <t>2016-02-08</t>
+  </si>
+  <si>
+    <t>2016-02-15</t>
+  </si>
+  <si>
+    <t>2016-02-22</t>
+  </si>
+  <si>
+    <t>2016-02-29</t>
+  </si>
+  <si>
+    <t>2016-03-07</t>
+  </si>
+  <si>
+    <t>2016-03-14</t>
+  </si>
+  <si>
+    <t>2016-03-21</t>
+  </si>
+  <si>
+    <t>2016-03-28</t>
+  </si>
+  <si>
+    <t>2016-04-04</t>
+  </si>
+  <si>
+    <t>2016-04-11</t>
+  </si>
+  <si>
+    <t>2016-04-18</t>
+  </si>
+  <si>
+    <t>2016-04-25</t>
+  </si>
+  <si>
+    <t>2016-05-02</t>
+  </si>
+  <si>
+    <t>2016-05-09</t>
+  </si>
+  <si>
+    <t>2016-05-16</t>
+  </si>
+  <si>
+    <t>2016-05-23</t>
+  </si>
+  <si>
+    <t>2016-05-30</t>
+  </si>
+  <si>
+    <t>2016-06-06</t>
+  </si>
+  <si>
+    <t>2016-06-13</t>
+  </si>
+  <si>
+    <t>2016-06-20</t>
+  </si>
+  <si>
+    <t>2016-06-27</t>
+  </si>
+  <si>
+    <t>2016-07-04</t>
+  </si>
+  <si>
+    <t>2016-07-11</t>
+  </si>
+  <si>
+    <t>2016-07-18</t>
+  </si>
+  <si>
+    <t>2016-07-25</t>
+  </si>
+  <si>
+    <t>2016-08-01</t>
+  </si>
+  <si>
+    <t>2016-08-08</t>
+  </si>
+  <si>
+    <t>2016-08-15</t>
+  </si>
+  <si>
+    <t>2016-08-22</t>
+  </si>
+  <si>
+    <t>2016-08-29</t>
+  </si>
+  <si>
+    <t>2016-09-05</t>
+  </si>
+  <si>
+    <t>2016-09-12</t>
+  </si>
+  <si>
+    <t>2016-09-19</t>
+  </si>
+  <si>
+    <t>2016-09-26</t>
+  </si>
+  <si>
+    <t>2016-10-03</t>
+  </si>
+  <si>
+    <t>2016-10-10</t>
+  </si>
+  <si>
+    <t>2016-10-17</t>
+  </si>
+  <si>
+    <t>2016-10-24</t>
+  </si>
+  <si>
+    <t>2016-10-31</t>
+  </si>
+  <si>
+    <t>2016-11-07</t>
+  </si>
+  <si>
+    <t>2016-11-14</t>
+  </si>
+  <si>
+    <t>2016-11-21</t>
+  </si>
+  <si>
+    <t>2016-11-28</t>
+  </si>
+  <si>
+    <t>2016-12-05</t>
+  </si>
+  <si>
+    <t>2016-12-12</t>
+  </si>
+  <si>
+    <t>2016-12-19</t>
+  </si>
+  <si>
+    <t>2016-12-26</t>
+  </si>
+  <si>
+    <t>2017-01-02</t>
+  </si>
+  <si>
+    <t>2017-01-09</t>
+  </si>
+  <si>
+    <t>2017-01-16</t>
+  </si>
+  <si>
+    <t>2017-01-23</t>
+  </si>
+  <si>
+    <t>2017-01-30</t>
+  </si>
+  <si>
+    <t>2017-02-06</t>
+  </si>
+  <si>
+    <t>2017-02-13</t>
+  </si>
+  <si>
+    <t>2017-02-20</t>
+  </si>
+  <si>
+    <t>2017-02-27</t>
+  </si>
+  <si>
+    <t>2017-03-06</t>
+  </si>
+  <si>
+    <t>2017-03-13</t>
+  </si>
+  <si>
+    <t>2017-03-20</t>
+  </si>
+  <si>
+    <t>2017-03-27</t>
+  </si>
+  <si>
+    <t>2017-04-03</t>
+  </si>
+  <si>
+    <t>2017-04-10</t>
+  </si>
+  <si>
+    <t>2017-04-17</t>
+  </si>
+  <si>
+    <t>2017-04-24</t>
+  </si>
+  <si>
+    <t>2017-05-01</t>
+  </si>
+  <si>
+    <t>2017-05-08</t>
+  </si>
+  <si>
+    <t>2017-05-15</t>
+  </si>
+  <si>
+    <t>2017-05-22</t>
+  </si>
+  <si>
+    <t>2017-05-29</t>
+  </si>
+  <si>
+    <t>2017-06-05</t>
+  </si>
+  <si>
+    <t>2017-06-12</t>
+  </si>
+  <si>
+    <t>2017-06-19</t>
+  </si>
+  <si>
+    <t>2017-06-26</t>
+  </si>
+  <si>
+    <t>2017-07-03</t>
+  </si>
+  <si>
+    <t>2017-07-10</t>
+  </si>
+  <si>
+    <t>2017-07-17</t>
+  </si>
+  <si>
+    <t>2017-07-24</t>
+  </si>
+  <si>
+    <t>2017-07-31</t>
+  </si>
+  <si>
+    <t>2017-08-07</t>
+  </si>
+  <si>
+    <t>2017-08-14</t>
+  </si>
+  <si>
+    <t>2017-08-21</t>
+  </si>
+  <si>
+    <t>2017-08-28</t>
+  </si>
+  <si>
+    <t>2017-09-04</t>
+  </si>
+  <si>
+    <t>2017-09-11</t>
+  </si>
+  <si>
+    <t>2017-09-18</t>
+  </si>
+  <si>
+    <t>2017-09-25</t>
+  </si>
+  <si>
+    <t>2017-10-02</t>
+  </si>
+  <si>
+    <t>2017-10-09</t>
+  </si>
+  <si>
+    <t>2017-10-16</t>
+  </si>
+  <si>
+    <t>2017-10-23</t>
+  </si>
+  <si>
+    <t>2017-10-30</t>
+  </si>
+  <si>
+    <t>2017-11-06</t>
+  </si>
+  <si>
+    <t>2017-11-13</t>
+  </si>
+  <si>
+    <t>2017-11-20</t>
+  </si>
+  <si>
+    <t>2017-11-27</t>
+  </si>
+  <si>
+    <t>2017-12-04</t>
+  </si>
+  <si>
+    <t>2017-12-11</t>
+  </si>
+  <si>
+    <t>2017-12-18</t>
+  </si>
+  <si>
+    <t>2017-12-25</t>
+  </si>
+  <si>
+    <t>2018-01-01</t>
+  </si>
+  <si>
+    <t>2018-01-08</t>
+  </si>
+  <si>
+    <t>2018-01-15</t>
+  </si>
+  <si>
+    <t>2018-01-22</t>
+  </si>
+  <si>
+    <t>2018-01-29</t>
+  </si>
+  <si>
+    <t>2018-02-05</t>
+  </si>
+  <si>
+    <t>2018-02-12</t>
+  </si>
+  <si>
+    <t>2018-02-19</t>
+  </si>
+  <si>
+    <t>2018-02-26</t>
+  </si>
+  <si>
+    <t>2018-03-05</t>
+  </si>
+  <si>
+    <t>2018-03-12</t>
+  </si>
+  <si>
+    <t>2018-03-19</t>
+  </si>
+  <si>
+    <t>2018-03-26</t>
+  </si>
+  <si>
+    <t>2018-04-02</t>
+  </si>
+  <si>
+    <t>2018-04-09</t>
+  </si>
+  <si>
+    <t>2018-04-16</t>
+  </si>
+  <si>
+    <t>2018-04-23</t>
+  </si>
+  <si>
+    <t>2018-04-30</t>
+  </si>
+  <si>
+    <t>2018-05-07</t>
+  </si>
+  <si>
+    <t>2018-05-14</t>
+  </si>
+  <si>
+    <t>2018-05-21</t>
+  </si>
+  <si>
+    <t>2018-05-28</t>
+  </si>
+  <si>
+    <t>2018-06-04</t>
+  </si>
+  <si>
+    <t>2018-06-11</t>
+  </si>
+  <si>
+    <t>2018-06-18</t>
+  </si>
+  <si>
+    <t>2018-06-25</t>
+  </si>
+  <si>
+    <t>2018-07-02</t>
+  </si>
+  <si>
+    <t>2018-07-09</t>
+  </si>
+  <si>
+    <t>2018-07-16</t>
+  </si>
+  <si>
+    <t>2018-07-23</t>
+  </si>
+  <si>
+    <t>2018-07-30</t>
+  </si>
+  <si>
+    <t>2018-08-06</t>
+  </si>
+  <si>
+    <t>2018-08-13</t>
+  </si>
+  <si>
+    <t>2018-08-20</t>
+  </si>
+  <si>
+    <t>2018-08-27</t>
+  </si>
+  <si>
+    <t>2018-09-03</t>
+  </si>
+  <si>
+    <t>2018-09-10</t>
+  </si>
+  <si>
+    <t>2018-09-17</t>
+  </si>
+  <si>
+    <t>2018-09-24</t>
+  </si>
+  <si>
+    <t>2018-10-01</t>
+  </si>
+  <si>
+    <t>2018-10-08</t>
+  </si>
+  <si>
+    <t>2018-10-15</t>
+  </si>
+  <si>
+    <t>2018-10-22</t>
+  </si>
+  <si>
+    <t>2018-10-29</t>
+  </si>
+  <si>
+    <t>2018-11-05</t>
+  </si>
+  <si>
+    <t>2018-11-12</t>
+  </si>
+  <si>
+    <t>2018-11-19</t>
+  </si>
+  <si>
+    <t>2018-11-26</t>
+  </si>
+  <si>
+    <t>2018-12-03</t>
+  </si>
+  <si>
+    <t>2018-12-10</t>
+  </si>
+  <si>
+    <t>2018-12-17</t>
+  </si>
+  <si>
+    <t>2018-12-24</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2019-01-07</t>
+  </si>
+  <si>
+    <t>2019-01-14</t>
+  </si>
+  <si>
+    <t>2019-01-21</t>
+  </si>
+  <si>
+    <t>2019-01-28</t>
+  </si>
+  <si>
+    <t>2019-02-04</t>
+  </si>
+  <si>
+    <t>2019-02-11</t>
+  </si>
+  <si>
+    <t>2019-02-18</t>
+  </si>
+  <si>
+    <t>2019-02-25</t>
+  </si>
+  <si>
+    <t>2019-03-04</t>
+  </si>
+  <si>
+    <t>2019-03-11</t>
+  </si>
+  <si>
+    <t>2019-03-18</t>
+  </si>
+  <si>
+    <t>2019-03-25</t>
+  </si>
+  <si>
+    <t>2019-04-01</t>
+  </si>
+  <si>
+    <t>2019-04-08</t>
+  </si>
+  <si>
+    <t>2019-04-15</t>
+  </si>
+  <si>
+    <t>2019-04-22</t>
+  </si>
+  <si>
+    <t>2019-04-29</t>
+  </si>
+  <si>
+    <t>2019-05-06</t>
+  </si>
+  <si>
+    <t>2019-05-13</t>
+  </si>
+  <si>
+    <t>2019-05-20</t>
+  </si>
+  <si>
+    <t>2019-05-27</t>
+  </si>
+  <si>
+    <t>2019-06-03</t>
+  </si>
+  <si>
+    <t>2019-06-10</t>
+  </si>
+  <si>
+    <t>2019-06-17</t>
+  </si>
+  <si>
+    <t>2019-06-24</t>
+  </si>
+  <si>
+    <t>2019-07-01</t>
+  </si>
+  <si>
+    <t>2019-07-08</t>
+  </si>
+  <si>
+    <t>2019-07-15</t>
+  </si>
+  <si>
+    <t>2019-07-22</t>
+  </si>
+  <si>
+    <t>2019-07-29</t>
+  </si>
+  <si>
+    <t>2019-08-05</t>
+  </si>
+  <si>
+    <t>2019-08-12</t>
+  </si>
+  <si>
+    <t>2019-08-19</t>
+  </si>
+  <si>
+    <t>2019-08-26</t>
+  </si>
+  <si>
+    <t>2019-09-02</t>
+  </si>
+  <si>
+    <t>2019-09-09</t>
+  </si>
+  <si>
+    <t>2019-09-16</t>
+  </si>
+  <si>
+    <t>2019-09-23</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-10-07</t>
+  </si>
+  <si>
+    <t>2019-10-14</t>
+  </si>
+  <si>
+    <t>2019-10-21</t>
+  </si>
+  <si>
+    <t>2019-10-28</t>
+  </si>
+  <si>
+    <t>2019-11-04</t>
+  </si>
+  <si>
+    <t>2019-11-11</t>
+  </si>
+  <si>
+    <t>2019-11-18</t>
+  </si>
+  <si>
+    <t>2019-11-25</t>
+  </si>
+  <si>
+    <t>2019-12-02</t>
+  </si>
+  <si>
+    <t>2019-12-09</t>
+  </si>
+  <si>
+    <t>2019-12-16</t>
+  </si>
+  <si>
+    <t>2019-12-23</t>
+  </si>
+  <si>
+    <t>2019-12-30</t>
+  </si>
+  <si>
+    <t>2020-01-06</t>
+  </si>
+  <si>
+    <t>2020-01-13</t>
+  </si>
+  <si>
+    <t>2020-01-20</t>
+  </si>
+  <si>
+    <t>2020-01-27</t>
+  </si>
+  <si>
+    <t>2020-02-03</t>
+  </si>
+  <si>
+    <t>2020-02-10</t>
+  </si>
+  <si>
+    <t>2020-02-17</t>
+  </si>
+  <si>
+    <t>2020-02-24</t>
+  </si>
+  <si>
+    <t>2020-03-02</t>
+  </si>
+  <si>
+    <t>2020-03-09</t>
+  </si>
+  <si>
+    <t>2020-03-16</t>
+  </si>
+  <si>
+    <t>2020-03-23</t>
+  </si>
+  <si>
+    <t>2020-03-30</t>
+  </si>
+  <si>
+    <t>2020-04-06</t>
+  </si>
+  <si>
+    <t>2020-04-13</t>
+  </si>
+  <si>
+    <t>2020-04-20</t>
+  </si>
+  <si>
+    <t>2020-04-27</t>
+  </si>
+  <si>
+    <t>2020-05-04</t>
+  </si>
+  <si>
+    <t>2020-05-11</t>
+  </si>
+  <si>
+    <t>2020-05-18</t>
+  </si>
+  <si>
+    <t>2020-05-25</t>
+  </si>
+  <si>
+    <t>2020-06-01</t>
+  </si>
+  <si>
+    <t>2020-06-08</t>
+  </si>
+  <si>
+    <t>2020-06-15</t>
+  </si>
+  <si>
+    <t>2020-06-22</t>
+  </si>
+  <si>
+    <t>2020-06-29</t>
+  </si>
+  <si>
+    <t>2020-07-06</t>
+  </si>
+  <si>
+    <t>2020-07-13</t>
+  </si>
+  <si>
+    <t>2020-07-20</t>
+  </si>
+  <si>
+    <t>2020-07-27</t>
+  </si>
+  <si>
+    <t>2020-08-03</t>
+  </si>
+  <si>
+    <t>2020-08-10</t>
+  </si>
+  <si>
+    <t>2020-08-17</t>
+  </si>
+  <si>
+    <t>2020-08-24</t>
+  </si>
+  <si>
+    <t>2020-08-31</t>
+  </si>
+  <si>
+    <t>2020-09-07</t>
+  </si>
+  <si>
+    <t>2020-09-14</t>
+  </si>
+  <si>
+    <t>2020-09-21</t>
+  </si>
+  <si>
+    <t>2020-09-28</t>
+  </si>
+  <si>
+    <t>2020-10-05</t>
+  </si>
+  <si>
+    <t>2020-10-12</t>
+  </si>
+  <si>
+    <t>2020-10-19</t>
+  </si>
+  <si>
+    <t>2020-10-26</t>
+  </si>
+  <si>
+    <t>2020-11-02</t>
+  </si>
+  <si>
+    <t>2020-11-09</t>
+  </si>
+  <si>
+    <t>2020-11-16</t>
+  </si>
+  <si>
+    <t>2020-11-23</t>
+  </si>
+  <si>
+    <t>2020-11-30</t>
+  </si>
+  <si>
+    <t>2020-12-07</t>
+  </si>
+  <si>
+    <t>2020-12-14</t>
+  </si>
+  <si>
+    <t>2020-12-21</t>
+  </si>
+  <si>
+    <t>2020-12-28</t>
+  </si>
+  <si>
+    <t>2021-01-04</t>
+  </si>
+  <si>
+    <t>2021-01-11</t>
+  </si>
+  <si>
+    <t>2021-01-18</t>
+  </si>
+  <si>
+    <t>2021-01-25</t>
+  </si>
+  <si>
+    <t>2021-02-01</t>
+  </si>
+  <si>
+    <t>2021-02-08</t>
+  </si>
+  <si>
+    <t>2021-02-15</t>
+  </si>
+  <si>
+    <t>2021-02-22</t>
+  </si>
+  <si>
+    <t>2021-03-01</t>
+  </si>
+  <si>
+    <t>2021-03-08</t>
+  </si>
+  <si>
+    <t>2021-03-15</t>
+  </si>
+  <si>
+    <t>2021-03-22</t>
+  </si>
+  <si>
+    <t>2021-03-29</t>
+  </si>
+  <si>
+    <t>2021-04-05</t>
+  </si>
+  <si>
+    <t>2021-04-12</t>
+  </si>
+  <si>
+    <t>2021-04-19</t>
+  </si>
+  <si>
+    <t>2021-04-26</t>
+  </si>
+  <si>
+    <t>2021-05-03</t>
+  </si>
+  <si>
+    <t>2021-05-10</t>
+  </si>
+  <si>
+    <t>2021-05-17</t>
+  </si>
+  <si>
+    <t>2021-05-24</t>
+  </si>
+  <si>
+    <t>2021-05-31</t>
+  </si>
+  <si>
+    <t>2021-06-07</t>
+  </si>
+  <si>
+    <t>2021-06-14</t>
+  </si>
+  <si>
+    <t>2021-06-21</t>
+  </si>
+  <si>
+    <t>2021-06-28</t>
+  </si>
+  <si>
+    <t>2021-07-05</t>
+  </si>
+  <si>
+    <t>2021-07-12</t>
+  </si>
+  <si>
+    <t>2021-07-19</t>
+  </si>
+  <si>
+    <t>2021-07-26</t>
+  </si>
+  <si>
+    <t>2021-08-02</t>
+  </si>
+  <si>
+    <t>2021-08-09</t>
+  </si>
+  <si>
+    <t>2021-08-16</t>
+  </si>
+  <si>
+    <t>2021-08-23</t>
+  </si>
+  <si>
+    <t>2021-08-30</t>
+  </si>
+  <si>
+    <t>2021-09-06</t>
+  </si>
+  <si>
+    <t>2021-09-13</t>
+  </si>
+  <si>
+    <t>2021-09-20</t>
+  </si>
+  <si>
+    <t>2021-09-27</t>
+  </si>
+  <si>
+    <t>2021-10-04</t>
+  </si>
+  <si>
+    <t>2021-10-11</t>
+  </si>
+  <si>
+    <t>2021-10-18</t>
+  </si>
+  <si>
+    <t>2021-10-25</t>
+  </si>
+  <si>
+    <t>2021-11-01</t>
+  </si>
+  <si>
+    <t>2021-11-08</t>
+  </si>
+  <si>
+    <t>2021-11-15</t>
+  </si>
+  <si>
+    <t>2021-11-22</t>
+  </si>
+  <si>
+    <t>2021-11-29</t>
+  </si>
+  <si>
+    <t>2021-12-06</t>
+  </si>
+  <si>
+    <t>2021-12-13</t>
+  </si>
+  <si>
+    <t>2021-12-20</t>
+  </si>
+  <si>
+    <t>2021-12-27</t>
+  </si>
+  <si>
+    <t>2022-01-03</t>
+  </si>
+  <si>
+    <t>2022-01-10</t>
+  </si>
+  <si>
+    <t>2022-01-17</t>
+  </si>
+  <si>
+    <t>2022-01-24</t>
+  </si>
+  <si>
+    <t>2022-01-31</t>
+  </si>
+  <si>
+    <t>2022-02-07</t>
+  </si>
+  <si>
+    <t>2022-02-14</t>
+  </si>
+  <si>
+    <t>2022-02-21</t>
+  </si>
+  <si>
+    <t>2022-02-28</t>
+  </si>
+  <si>
+    <t>2022-03-07</t>
+  </si>
+  <si>
+    <t>2022-03-14</t>
+  </si>
+  <si>
+    <t>2022-03-21</t>
+  </si>
+  <si>
+    <t>2022-03-28</t>
+  </si>
+  <si>
+    <t>2022-04-04</t>
+  </si>
+  <si>
+    <t>2022-04-11</t>
+  </si>
+  <si>
+    <t>2022-04-18</t>
+  </si>
+  <si>
+    <t>2022-04-25</t>
+  </si>
+  <si>
+    <t>2022-05-02</t>
+  </si>
+  <si>
+    <t>2022-05-09</t>
+  </si>
+  <si>
+    <t>2022-05-16</t>
+  </si>
+  <si>
+    <t>2022-05-23</t>
+  </si>
+  <si>
+    <t>2022-05-30</t>
+  </si>
+  <si>
+    <t>2022-06-06</t>
+  </si>
+  <si>
+    <t>2022-06-13</t>
+  </si>
+  <si>
+    <t>2022-06-20</t>
+  </si>
+  <si>
+    <t>2022-06-27</t>
+  </si>
+  <si>
+    <t>2022-07-04</t>
+  </si>
+  <si>
+    <t>2022-07-11</t>
+  </si>
+  <si>
+    <t>2022-07-18</t>
+  </si>
+  <si>
+    <t>2022-07-25</t>
+  </si>
+  <si>
+    <t>2022-08-01</t>
+  </si>
+  <si>
+    <t>2022-08-08</t>
+  </si>
+  <si>
+    <t>2022-08-15</t>
+  </si>
+  <si>
+    <t>2022-08-22</t>
+  </si>
+  <si>
+    <t>2022-08-29</t>
+  </si>
+  <si>
+    <t>2022-09-05</t>
+  </si>
+  <si>
+    <t>2022-09-12</t>
+  </si>
+  <si>
+    <t>2022-09-19</t>
+  </si>
+  <si>
+    <t>2022-09-26</t>
+  </si>
+  <si>
+    <t>2022-10-03</t>
+  </si>
+  <si>
+    <t>2022-10-10</t>
+  </si>
+  <si>
+    <t>2022-10-17</t>
+  </si>
+  <si>
+    <t>2022-10-24</t>
+  </si>
+  <si>
+    <t>2022-10-31</t>
+  </si>
+  <si>
+    <t>2022-11-07</t>
+  </si>
+  <si>
+    <t>2022-11-14</t>
+  </si>
+  <si>
+    <t>2022-11-21</t>
+  </si>
+  <si>
+    <t>2022-11-28</t>
+  </si>
+  <si>
+    <t>2022-12-05</t>
+  </si>
+  <si>
+    <t>2022-12-12</t>
+  </si>
+  <si>
+    <t>2022-12-19</t>
+  </si>
+  <si>
+    <t>2022-12-26</t>
+  </si>
+  <si>
+    <t>2023-01-02</t>
+  </si>
+  <si>
+    <t>2023-01-09</t>
+  </si>
+  <si>
+    <t>2023-01-16</t>
+  </si>
+  <si>
+    <t>2023-01-23</t>
+  </si>
+  <si>
+    <t>2023-01-30</t>
+  </si>
+  <si>
+    <t>2023-02-06</t>
+  </si>
+  <si>
+    <t>2023-02-13</t>
+  </si>
+  <si>
+    <t>2023-02-20</t>
+  </si>
+  <si>
+    <t>2023-02-27</t>
+  </si>
+  <si>
+    <t>2023-03-06</t>
+  </si>
+  <si>
+    <t>2023-03-13</t>
+  </si>
+  <si>
+    <t>2023-03-20</t>
+  </si>
+  <si>
+    <t>2023-03-27</t>
+  </si>
+  <si>
+    <t>2023-04-03</t>
+  </si>
+  <si>
+    <t>2023-04-10</t>
+  </si>
+  <si>
+    <t>2023-04-17</t>
+  </si>
+  <si>
+    <t>2023-04-24</t>
+  </si>
+  <si>
+    <t>2023-05-01</t>
+  </si>
+  <si>
+    <t>2023-05-08</t>
+  </si>
+  <si>
+    <t>2023-05-15</t>
+  </si>
+  <si>
+    <t>2023-05-22</t>
+  </si>
+  <si>
+    <t>2023-05-29</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>2023-06-12</t>
+  </si>
+  <si>
+    <t>2023-06-19</t>
+  </si>
+  <si>
+    <t>2023-06-26</t>
+  </si>
+  <si>
+    <t>2023-07-03</t>
+  </si>
+  <si>
+    <t>2023-07-10</t>
+  </si>
+  <si>
+    <t>2023-07-17</t>
+  </si>
+  <si>
+    <t>2023-07-24</t>
+  </si>
+  <si>
+    <t>2023-07-31</t>
+  </si>
+  <si>
+    <t>2023-08-07</t>
+  </si>
+  <si>
+    <t>2023-08-14</t>
+  </si>
+  <si>
+    <t>2023-08-21</t>
+  </si>
+  <si>
+    <t>2023-08-28</t>
+  </si>
+  <si>
+    <t>2023-09-04</t>
+  </si>
+  <si>
+    <t>2023-09-11</t>
+  </si>
+  <si>
+    <t>2023-09-18</t>
+  </si>
+  <si>
+    <t>2023-09-25</t>
+  </si>
+  <si>
+    <t>2023-10-02</t>
+  </si>
+  <si>
+    <t>2023-10-09</t>
+  </si>
+  <si>
+    <t>2023-10-16</t>
+  </si>
+  <si>
+    <t>2023-10-23</t>
+  </si>
+  <si>
+    <t>2023-10-30</t>
+  </si>
+  <si>
+    <t>2023-11-06</t>
+  </si>
+  <si>
+    <t>2023-11-13</t>
+  </si>
+  <si>
+    <t>2023-11-20</t>
+  </si>
+  <si>
+    <t>2023-11-27</t>
+  </si>
+  <si>
+    <t>2023-12-04</t>
+  </si>
+  <si>
+    <t>2023-12-11</t>
+  </si>
+  <si>
+    <t>2023-12-18</t>
+  </si>
+  <si>
+    <t>2023-12-25</t>
+  </si>
+  <si>
+    <t>2024-01-01</t>
+  </si>
+  <si>
+    <t>2024-01-08</t>
+  </si>
+  <si>
+    <t>2024-01-15</t>
+  </si>
+  <si>
+    <t>2024-01-22</t>
+  </si>
+  <si>
+    <t>2024-01-29</t>
+  </si>
+  <si>
+    <t>2024-02-05</t>
+  </si>
+  <si>
+    <t>2024-02-12</t>
+  </si>
+  <si>
+    <t>2024-02-19</t>
+  </si>
+  <si>
+    <t>2024-02-26</t>
+  </si>
+  <si>
+    <t>2024-03-04</t>
+  </si>
+  <si>
+    <t>2024-03-11</t>
+  </si>
+  <si>
+    <t>2024-03-18</t>
+  </si>
+  <si>
+    <t>2024-03-25</t>
+  </si>
+  <si>
+    <t>2024-04-01</t>
+  </si>
+  <si>
+    <t>2024-04-08</t>
+  </si>
+  <si>
+    <t>2024-04-15</t>
+  </si>
+  <si>
+    <t>2024-04-22</t>
+  </si>
+  <si>
+    <t>2024-04-29</t>
+  </si>
+  <si>
+    <t>2024-05-06</t>
+  </si>
+  <si>
+    <t>2024-05-13</t>
+  </si>
+  <si>
+    <t>2024-05-20</t>
+  </si>
+  <si>
+    <t>2024-05-27</t>
+  </si>
+  <si>
+    <t>2024-06-03</t>
+  </si>
+  <si>
+    <t>2024-06-10</t>
+  </si>
+  <si>
+    <t>2024-06-17</t>
+  </si>
+  <si>
+    <t>2024-06-24</t>
+  </si>
+  <si>
+    <t>2024-07-01</t>
+  </si>
+  <si>
+    <t>2024-07-08</t>
+  </si>
+  <si>
+    <t>2024-07-15</t>
+  </si>
+  <si>
+    <t>2024-07-22</t>
+  </si>
+  <si>
+    <t>2024-07-29</t>
+  </si>
+  <si>
+    <t>2024-08-05</t>
+  </si>
+  <si>
+    <t>2024-08-12</t>
+  </si>
+  <si>
+    <t>2024-08-19</t>
+  </si>
+  <si>
+    <t>2024-08-26</t>
+  </si>
+  <si>
+    <t>2024-09-02</t>
+  </si>
+  <si>
+    <t>2024-09-09</t>
+  </si>
+  <si>
+    <t>2024-09-16</t>
+  </si>
+  <si>
+    <t>2024-09-23</t>
+  </si>
+  <si>
+    <t>2024-09-30</t>
+  </si>
+  <si>
+    <t>2024-10-07</t>
+  </si>
+  <si>
+    <t>2024-10-14</t>
+  </si>
+  <si>
+    <t>2024-10-21</t>
+  </si>
+  <si>
+    <t>2024-10-28</t>
+  </si>
+  <si>
+    <t>2024-11-04</t>
+  </si>
+  <si>
+    <t>2024-11-11</t>
+  </si>
+  <si>
+    <t>2024-11-18</t>
+  </si>
+  <si>
+    <t>2024-11-25</t>
+  </si>
+  <si>
+    <t>2024-12-02</t>
+  </si>
+  <si>
+    <t>2024-12-09</t>
+  </si>
+  <si>
+    <t>2024-12-16</t>
+  </si>
+  <si>
+    <t>2024-12-23</t>
+  </si>
+  <si>
+    <t>2024-12-30</t>
+  </si>
+  <si>
+    <t>2025-01-06</t>
+  </si>
+  <si>
+    <t>2025-01-13</t>
+  </si>
+  <si>
+    <t>2025-01-20</t>
+  </si>
+  <si>
+    <t>2025-01-27</t>
   </si>
 </sst>
 </file>
@@ -56,18 +1478,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -82,11 +1498,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -395,10 +1808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B291"/>
+  <dimension ref="A1:B475"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A458" workbookViewId="0">
+      <selection activeCell="D475" sqref="D475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,2331 +1821,3803 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>42373</v>
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>1177.0715966050479</v>
+        <v>844.07276018025004</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>42380</v>
+      <c r="A3" t="s">
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>1176.422063834422</v>
+        <v>837.82145192003327</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>42387</v>
+      <c r="A4" t="s">
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>1162.538375776938</v>
+        <v>830.44420475508343</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>42394</v>
+      <c r="A5" t="s">
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>1218.9781094317559</v>
+        <v>780.75195342401514</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>42401</v>
+      <c r="A6" t="s">
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>1205.8188438600221</v>
+        <v>741.3318777417395</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>42408</v>
+      <c r="A7" t="s">
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>1033.278473215742</v>
+        <v>741.035557576477</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>42415</v>
+      <c r="A8" t="s">
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>778.38912031507266</v>
+        <v>693.12022795701387</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>42422</v>
+      <c r="A9" t="s">
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>804.72509899925706</v>
+        <v>616.54777362653829</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>42429</v>
+      <c r="A10" t="s">
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>834.09205721126341</v>
+        <v>621.32418743836001</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>42436</v>
+      <c r="A11" t="s">
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>881.35055363141464</v>
+        <v>655.66052175169239</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>42443</v>
+      <c r="A12" t="s">
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>869.51478867739138</v>
+        <v>680.02183955302178</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>42450</v>
+      <c r="A13" t="s">
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>885.73871562581019</v>
+        <v>712.79189987757479</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>42457</v>
+      <c r="A14" t="s">
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>755.56166288280963</v>
+        <v>670.35278710104751</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>42464</v>
+      <c r="A15" t="s">
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>748.15249256042569</v>
+        <v>643.88853332256701</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>42471</v>
+      <c r="A16" t="s">
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>736.57964596854833</v>
+        <v>628.38665884108366</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>42478</v>
+      <c r="A17" t="s">
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>769.54779391992099</v>
+        <v>644.22448566231105</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>42485</v>
+      <c r="A18" t="s">
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>766.14171555334815</v>
+        <v>652.54168014928064</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>42492</v>
+      <c r="A19" t="s">
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>751.18337834169768</v>
+        <v>644.0992062843145</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>42499</v>
+      <c r="A20" t="s">
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>747.54447469683225</v>
+        <v>660.98198812743806</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>42506</v>
+      <c r="A21" t="s">
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>737.42897629844288</v>
+        <v>666.09508926870876</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>42513</v>
+      <c r="A22" t="s">
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>737.44550297063972</v>
+        <v>631.80278413529436</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>42520</v>
+      <c r="A23" t="s">
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>787.7931600000054</v>
+        <v>640.90629970430564</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>42527</v>
+      <c r="A24" t="s">
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>804.63971268065063</v>
+        <v>577.56362624802409</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>42534</v>
+      <c r="A25" t="s">
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>775.852687059338</v>
+        <v>608.18488085814568</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>42541</v>
+      <c r="A26" t="s">
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>752.35063487598916</v>
+        <v>634.2058505662759</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>42548</v>
+      <c r="A27" t="s">
+        <v>27</v>
       </c>
       <c r="B27">
-        <v>744.40950810655113</v>
+        <v>618.37924693760078</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>42555</v>
+      <c r="A28" t="s">
+        <v>28</v>
       </c>
       <c r="B28">
-        <v>743.27972360439537</v>
+        <v>612.30051761198035</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>42562</v>
+      <c r="A29" t="s">
+        <v>29</v>
       </c>
       <c r="B29">
-        <v>736.24886371244042</v>
+        <v>614.63233790454433</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>42569</v>
+      <c r="A30" t="s">
+        <v>30</v>
       </c>
       <c r="B30">
-        <v>740.95877620569172</v>
+        <v>625.82394763323634</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>42576</v>
-      </c>
-      <c r="B31" s="3">
-        <v>760.90821643330491</v>
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>631.45109972849195</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>42583</v>
+      <c r="A32" t="s">
+        <v>32</v>
       </c>
       <c r="B32">
-        <v>729.56982519908684</v>
+        <v>603.28456709709064</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>42590</v>
+      <c r="A33" t="s">
+        <v>33</v>
       </c>
       <c r="B33">
-        <v>727.98278790376685</v>
+        <v>628.60270222179929</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>42597</v>
+      <c r="A34" t="s">
+        <v>34</v>
       </c>
       <c r="B34">
-        <v>725.36241687164681</v>
+        <v>612.04827629147132</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>42604</v>
+      <c r="A35" t="s">
+        <v>35</v>
       </c>
       <c r="B35">
-        <v>735.5841658403275</v>
+        <v>602.51653470135477</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>42611</v>
+      <c r="A36" t="s">
+        <v>36</v>
       </c>
       <c r="B36">
-        <v>752.83442596118812</v>
+        <v>645.83536610159922</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>42618</v>
+      <c r="A37" t="s">
+        <v>37</v>
       </c>
       <c r="B37">
-        <v>765.60202855967634</v>
+        <v>654.6547055255071</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>42625</v>
+      <c r="A38" t="s">
+        <v>38</v>
       </c>
       <c r="B38">
-        <v>778.99413374341259</v>
+        <v>617.16587677505674</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>42632</v>
+      <c r="A39" t="s">
+        <v>39</v>
       </c>
       <c r="B39">
-        <v>766.06968825047898</v>
+        <v>687.13872016634593</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>42639</v>
+      <c r="A40" t="s">
+        <v>40</v>
       </c>
       <c r="B40">
-        <v>768.33555210497718</v>
+        <v>694.00933702833549</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>42646</v>
+      <c r="A41" t="s">
+        <v>41</v>
       </c>
       <c r="B41">
-        <v>737.91397238823458</v>
+        <v>682.38947095394951</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>42653</v>
+      <c r="A42" t="s">
+        <v>42</v>
       </c>
       <c r="B42">
-        <v>785.21114798814688</v>
+        <v>672.98744303615103</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>42660</v>
+      <c r="A43" t="s">
+        <v>43</v>
       </c>
       <c r="B43">
-        <v>826.31665414074018</v>
+        <v>669.60304814226618</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>42667</v>
+      <c r="A44" t="s">
+        <v>44</v>
       </c>
       <c r="B44">
-        <v>865.37991001718592</v>
+        <v>674.46886273249163</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>42674</v>
+      <c r="A45" t="s">
+        <v>45</v>
       </c>
       <c r="B45">
-        <v>774.87873461366303</v>
+        <v>655.76600005038267</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>42681</v>
+      <c r="A46" t="s">
+        <v>46</v>
       </c>
       <c r="B46">
-        <v>793.63957548455903</v>
+        <v>657.1940037569874</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>42688</v>
+      <c r="A47" t="s">
+        <v>47</v>
       </c>
       <c r="B47">
-        <v>788.22954179560782</v>
+        <v>671.8553833565777</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>42695</v>
+      <c r="A48" t="s">
+        <v>48</v>
       </c>
       <c r="B48">
-        <v>839.27902907770374</v>
+        <v>666.79141254424735</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>42702</v>
+      <c r="A49" t="s">
+        <v>49</v>
       </c>
       <c r="B49">
-        <v>988.11299593356534</v>
+        <v>670.45914891594691</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>42709</v>
+      <c r="A50" t="s">
+        <v>50</v>
       </c>
       <c r="B50">
-        <v>972.20584485284394</v>
+        <v>661.53494884903751</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>42716</v>
+      <c r="A51" t="s">
+        <v>51</v>
       </c>
       <c r="B51">
-        <v>876.30253940109321</v>
+        <v>649.72656515785388</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>42723</v>
+      <c r="A52" t="s">
+        <v>52</v>
       </c>
       <c r="B52">
-        <v>811.52263991214522</v>
+        <v>601.70962746295561</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>42730</v>
+      <c r="A53" t="s">
+        <v>53</v>
       </c>
       <c r="B53">
-        <v>857.99294824141464</v>
+        <v>606.66981846003273</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>42370</v>
+      <c r="A54" t="s">
+        <v>54</v>
       </c>
       <c r="B54">
-        <v>1235.6855496904391</v>
+        <v>682.8818498884317</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>42737</v>
+      <c r="A55" t="s">
+        <v>55</v>
       </c>
       <c r="B55">
-        <v>1118.453108697385</v>
+        <v>686.36518982310292</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>42744</v>
+      <c r="A56" t="s">
+        <v>56</v>
       </c>
       <c r="B56">
-        <v>1159.8268615911529</v>
+        <v>724.20972402096254</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>42751</v>
+      <c r="A57" t="s">
+        <v>57</v>
       </c>
       <c r="B57">
-        <v>1171.6072565464131</v>
+        <v>707.25965200204416</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>42758</v>
+      <c r="A58" t="s">
+        <v>58</v>
       </c>
       <c r="B58">
-        <v>1190.5781886300781</v>
+        <v>765.13641466700062</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>42765</v>
+      <c r="A59" t="s">
+        <v>59</v>
       </c>
       <c r="B59">
-        <v>1230.895561224065</v>
+        <v>748.98566971809237</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>42772</v>
+      <c r="A60" t="s">
+        <v>60</v>
       </c>
       <c r="B60">
-        <v>763.00062946069829</v>
+        <v>705.8489917855037</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>42779</v>
+      <c r="A61" t="s">
+        <v>61</v>
       </c>
       <c r="B61">
-        <v>828.46373632882364</v>
+        <v>611.82260818396981</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>42786</v>
+      <c r="A62" t="s">
+        <v>62</v>
       </c>
       <c r="B62">
-        <v>861.87904470586432</v>
+        <v>592.09641214198587</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>42793</v>
+      <c r="A63" t="s">
+        <v>63</v>
       </c>
       <c r="B63">
-        <v>892.34190765752953</v>
+        <v>572.53543572634214</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>42800</v>
+      <c r="A64" t="s">
+        <v>64</v>
       </c>
       <c r="B64">
-        <v>943.8826789151617</v>
+        <v>605.73825581919709</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>42807</v>
+      <c r="A65" t="s">
+        <v>65</v>
       </c>
       <c r="B65">
-        <v>953.57854992145747</v>
+        <v>654.26864422551228</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>42814</v>
+      <c r="A66" t="s">
+        <v>66</v>
       </c>
       <c r="B66">
-        <v>962.97211919249548</v>
+        <v>630.21450941631679</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>42821</v>
+      <c r="A67" t="s">
+        <v>67</v>
       </c>
       <c r="B67">
-        <v>768.60641679594062</v>
+        <v>629.81530315403131</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>42828</v>
+      <c r="A68" t="s">
+        <v>68</v>
       </c>
       <c r="B68">
-        <v>773.4564355603336</v>
+        <v>587.64176858708549</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>42835</v>
+      <c r="A69" t="s">
+        <v>69</v>
       </c>
       <c r="B69">
-        <v>764.7995630152966</v>
+        <v>617.72107424758053</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>42842</v>
+      <c r="A70" t="s">
+        <v>70</v>
       </c>
       <c r="B70">
-        <v>746.58459710736577</v>
+        <v>629.65315039775305</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>42849</v>
+      <c r="A71" t="s">
+        <v>71</v>
       </c>
       <c r="B71">
-        <v>753.50442103274213</v>
+        <v>612.08977891073914</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>42856</v>
+      <c r="A72" t="s">
+        <v>72</v>
       </c>
       <c r="B72">
-        <v>765.75452462288274</v>
+        <v>599.7059451845721</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>42863</v>
+      <c r="A73" t="s">
+        <v>73</v>
       </c>
       <c r="B73">
-        <v>784.12243239099882</v>
+        <v>595.73269648001894</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>42870</v>
+      <c r="A74" t="s">
+        <v>74</v>
       </c>
       <c r="B74">
-        <v>781.72104241042223</v>
+        <v>638.96400688447693</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>42877</v>
+      <c r="A75" t="s">
+        <v>75</v>
       </c>
       <c r="B75">
-        <v>779.07713150280313</v>
+        <v>646.48947828142252</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>42884</v>
+      <c r="A76" t="s">
+        <v>76</v>
       </c>
       <c r="B76">
-        <v>796.5564367022065</v>
+        <v>638.518079183532</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>42891</v>
+      <c r="A77" t="s">
+        <v>77</v>
       </c>
       <c r="B77">
-        <v>778.21645326897954</v>
+        <v>613.40098868011694</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>42898</v>
+      <c r="A78" t="s">
+        <v>78</v>
       </c>
       <c r="B78">
-        <v>742.39675975681826</v>
+        <v>613.45657047808777</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>42905</v>
+      <c r="A79" t="s">
+        <v>79</v>
       </c>
       <c r="B79">
-        <v>749.37538920458815</v>
+        <v>636.5939808296871</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>42912</v>
+      <c r="A80" t="s">
+        <v>80</v>
       </c>
       <c r="B80">
-        <v>746.36153835564301</v>
+        <v>626.41967451029666</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>42919</v>
+      <c r="A81" t="s">
+        <v>81</v>
       </c>
       <c r="B81">
-        <v>744.73473264885729</v>
+        <v>655.43414876913698</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>42926</v>
+      <c r="A82" t="s">
+        <v>82</v>
       </c>
       <c r="B82">
-        <v>731.10581237187932</v>
+        <v>657.27670173792444</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>42933</v>
+      <c r="A83" t="s">
+        <v>83</v>
       </c>
       <c r="B83">
-        <v>798.44299776158255</v>
+        <v>618.57046711437886</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>42940</v>
+      <c r="A84" t="s">
+        <v>84</v>
       </c>
       <c r="B84">
-        <v>821.59317688029603</v>
+        <v>609.33739136228724</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>42947</v>
+      <c r="A85" t="s">
+        <v>85</v>
       </c>
       <c r="B85">
-        <v>836.81184168067023</v>
+        <v>580.22490399730191</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>42954</v>
+      <c r="A86" t="s">
+        <v>86</v>
       </c>
       <c r="B86">
-        <v>743.04064847663722</v>
+        <v>580.89257752445872</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>42961</v>
+      <c r="A87" t="s">
+        <v>87</v>
       </c>
       <c r="B87">
-        <v>724.82103293930606</v>
+        <v>614.14606230251354</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>42968</v>
+      <c r="A88" t="s">
+        <v>88</v>
       </c>
       <c r="B88">
-        <v>719.8612420973908</v>
+        <v>624.05966005203891</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>42975</v>
+      <c r="A89" t="s">
+        <v>89</v>
       </c>
       <c r="B89">
-        <v>763.56525672192265</v>
+        <v>651.07682441064094</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>42982</v>
+      <c r="A90" t="s">
+        <v>90</v>
       </c>
       <c r="B90">
-        <v>815.5173274456821</v>
+        <v>631.5465542038412</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>42989</v>
+      <c r="A91" t="s">
+        <v>91</v>
       </c>
       <c r="B91">
-        <v>801.03174998935629</v>
+        <v>628.72862669368681</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
-        <v>42996</v>
+      <c r="A92" t="s">
+        <v>92</v>
       </c>
       <c r="B92">
-        <v>765.87230069111411</v>
+        <v>637.59994008932131</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>43003</v>
+      <c r="A93" t="s">
+        <v>93</v>
       </c>
       <c r="B93">
-        <v>779.49847935638377</v>
+        <v>628.87237718781705</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>43010</v>
+      <c r="A94" t="s">
+        <v>94</v>
       </c>
       <c r="B94">
-        <v>772.6991848562725</v>
+        <v>656.65178880982978</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <v>43017</v>
+      <c r="A95" t="s">
+        <v>95</v>
       </c>
       <c r="B95">
-        <v>778.23123816125189</v>
+        <v>672.81866817426032</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <v>43024</v>
+      <c r="A96" t="s">
+        <v>96</v>
       </c>
       <c r="B96">
-        <v>814.17620642203804</v>
+        <v>683.00782425973046</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
-        <v>43031</v>
+      <c r="A97" t="s">
+        <v>97</v>
       </c>
       <c r="B97">
-        <v>768.68119970268947</v>
+        <v>664.85717786628197</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
-        <v>43038</v>
+      <c r="A98" t="s">
+        <v>98</v>
       </c>
       <c r="B98">
-        <v>768.14944054588477</v>
+        <v>668.07495917558731</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
-        <v>43045</v>
+      <c r="A99" t="s">
+        <v>99</v>
       </c>
       <c r="B99">
-        <v>751.6514938088103</v>
+        <v>660.21729657431626</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>43052</v>
+      <c r="A100" t="s">
+        <v>100</v>
       </c>
       <c r="B100">
-        <v>749.03897030612063</v>
+        <v>633.31552630063015</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
-        <v>43059</v>
+      <c r="A101" t="s">
+        <v>101</v>
       </c>
       <c r="B101">
-        <v>765.11523117326738</v>
+        <v>617.81572251409307</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
-        <v>43066</v>
+      <c r="A102" t="s">
+        <v>102</v>
       </c>
       <c r="B102">
-        <v>740.99844899165123</v>
+        <v>660.69482778594329</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
-        <v>43073</v>
+      <c r="A103" t="s">
+        <v>103</v>
       </c>
       <c r="B103">
-        <v>748.77101460552547</v>
+        <v>668.40935567382348</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
-        <v>43080</v>
+      <c r="A104" t="s">
+        <v>104</v>
       </c>
       <c r="B104">
-        <v>754.06714851006313</v>
+        <v>631.58509145611345</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
-        <v>43087</v>
+      <c r="A105" t="s">
+        <v>105</v>
       </c>
       <c r="B105">
-        <v>785.74596600161397</v>
+        <v>635.16904860204636</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
-        <v>43094</v>
+      <c r="A106" t="s">
+        <v>106</v>
       </c>
       <c r="B106">
-        <v>1233.317957824157</v>
+        <v>696.66128929405829</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
-        <v>43101</v>
+      <c r="A107" t="s">
+        <v>107</v>
       </c>
       <c r="B107">
-        <v>1208.0881614765831</v>
+        <v>652.7058098886132</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
-        <v>43108</v>
+      <c r="A108" t="s">
+        <v>108</v>
       </c>
       <c r="B108">
-        <v>1156.8594878462591</v>
+        <v>655.7073968745633</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
-        <v>43115</v>
+      <c r="A109" t="s">
+        <v>109</v>
       </c>
       <c r="B109">
-        <v>1113.674171537426</v>
+        <v>615.2117075811118</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
-        <v>43122</v>
+      <c r="A110" t="s">
+        <v>110</v>
       </c>
       <c r="B110">
-        <v>1115.238143381757</v>
+        <v>680.17543721368372</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
-        <v>43129</v>
+      <c r="A111" t="s">
+        <v>111</v>
       </c>
       <c r="B111">
-        <v>1124.0020138237539</v>
+        <v>725.77032244841234</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
-        <v>43136</v>
+      <c r="A112" t="s">
+        <v>112</v>
       </c>
       <c r="B112">
-        <v>764.2966376885762</v>
+        <v>735.43495536772912</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
-        <v>43143</v>
+      <c r="A113" t="s">
+        <v>113</v>
       </c>
       <c r="B113">
-        <v>748.16967155843793</v>
+        <v>695.87654829103928</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
-        <v>43150</v>
+      <c r="A114" t="s">
+        <v>114</v>
       </c>
       <c r="B114">
-        <v>747.59119540692484</v>
+        <v>686.88716526241342</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
-        <v>43157</v>
+      <c r="A115" t="s">
+        <v>115</v>
       </c>
       <c r="B115">
-        <v>831.37394383108312</v>
+        <v>678.38332152224143</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
-        <v>43164</v>
+      <c r="A116" t="s">
+        <v>116</v>
       </c>
       <c r="B116">
-        <v>841.11365595474103</v>
+        <v>673.90033504573455</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
-        <v>43171</v>
+      <c r="A117" t="s">
+        <v>117</v>
       </c>
       <c r="B117">
-        <v>876.09829817729963</v>
+        <v>672.7259635935884</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
-        <v>43178</v>
+      <c r="A118" t="s">
+        <v>118</v>
       </c>
       <c r="B118">
-        <v>862.17843050626232</v>
+        <v>657.97709065950642</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
-        <v>43185</v>
+      <c r="A119" t="s">
+        <v>119</v>
       </c>
       <c r="B119">
-        <v>849.72093382047547</v>
+        <v>682.10692683107902</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
-        <v>43192</v>
+      <c r="A120" t="s">
+        <v>120</v>
       </c>
       <c r="B120">
-        <v>830.02278241296256</v>
+        <v>673.16507647447031</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
-        <v>43199</v>
+      <c r="A121" t="s">
+        <v>121</v>
       </c>
       <c r="B121">
-        <v>767.73101768153685</v>
+        <v>650.69907375024582</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
-        <v>43206</v>
+      <c r="A122" t="s">
+        <v>122</v>
       </c>
       <c r="B122">
-        <v>756.50563284139866</v>
+        <v>644.06309248675279</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
-        <v>43213</v>
+      <c r="A123" t="s">
+        <v>123</v>
       </c>
       <c r="B123">
-        <v>879.55605876695449</v>
+        <v>651.01491922911691</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
-        <v>43220</v>
+      <c r="A124" t="s">
+        <v>124</v>
       </c>
       <c r="B124">
-        <v>897.46834086293973</v>
+        <v>651.26237243889898</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
-        <v>43227</v>
+      <c r="A125" t="s">
+        <v>125</v>
       </c>
       <c r="B125">
-        <v>915.42405118149873</v>
+        <v>640.42424653524927</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
-        <v>43234</v>
+      <c r="A126" t="s">
+        <v>126</v>
       </c>
       <c r="B126">
-        <v>972.41805452176322</v>
+        <v>639.6273538723068</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
-        <v>43241</v>
+      <c r="A127" t="s">
+        <v>127</v>
       </c>
       <c r="B127">
-        <v>992.31503710474908</v>
+        <v>630.2375213044927</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
-        <v>43248</v>
+      <c r="A128" t="s">
+        <v>128</v>
       </c>
       <c r="B128">
-        <v>977.35451116968557</v>
+        <v>617.79461552362295</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
-        <v>43255</v>
+      <c r="A129" t="s">
+        <v>129</v>
       </c>
       <c r="B129">
-        <v>898.39728660858952</v>
+        <v>609.36525686482037</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
-        <v>43262</v>
+      <c r="A130" t="s">
+        <v>130</v>
       </c>
       <c r="B130">
-        <v>928.85120156154085</v>
+        <v>628.66869269015604</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
-        <v>43269</v>
+      <c r="A131" t="s">
+        <v>131</v>
       </c>
       <c r="B131">
-        <v>923.11445692926156</v>
+        <v>625.93780982323676</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
-        <v>43276</v>
+      <c r="A132" t="s">
+        <v>132</v>
       </c>
       <c r="B132">
-        <v>980.71131842402065</v>
+        <v>664.28971704903677</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
-        <v>43283</v>
+      <c r="A133" t="s">
+        <v>133</v>
       </c>
       <c r="B133">
-        <v>927.74829013361602</v>
+        <v>707.71511801030522</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
-        <v>43290</v>
+      <c r="A134" t="s">
+        <v>134</v>
       </c>
       <c r="B134">
-        <v>857.43121944657435</v>
+        <v>682.03348978125882</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
-        <v>43297</v>
+      <c r="A135" t="s">
+        <v>135</v>
       </c>
       <c r="B135">
-        <v>772.24198428501029</v>
+        <v>684.69795843576787</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="1">
-        <v>43304</v>
+      <c r="A136" t="s">
+        <v>136</v>
       </c>
       <c r="B136">
-        <v>799.01096516107555</v>
+        <v>633.58324194079364</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="1">
-        <v>43311</v>
+      <c r="A137" t="s">
+        <v>137</v>
       </c>
       <c r="B137">
-        <v>823.7882978471016</v>
+        <v>617.74903931806955</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="1">
-        <v>43318</v>
+      <c r="A138" t="s">
+        <v>138</v>
       </c>
       <c r="B138">
-        <v>817.76248402662122</v>
+        <v>625.70931126065614</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="1">
-        <v>43325</v>
+      <c r="A139" t="s">
+        <v>139</v>
       </c>
       <c r="B139">
-        <v>808.32927908023646</v>
+        <v>605.65096724854288</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
-        <v>43332</v>
+      <c r="A140" t="s">
+        <v>140</v>
       </c>
       <c r="B140">
-        <v>795.31665634173373</v>
+        <v>609.26875116521717</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="1">
-        <v>43339</v>
+      <c r="A141" t="s">
+        <v>141</v>
       </c>
       <c r="B141">
-        <v>820.35967912059618</v>
+        <v>600.39571901802617</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="1">
-        <v>43346</v>
+      <c r="A142" t="s">
+        <v>142</v>
       </c>
       <c r="B142">
-        <v>813.98554585427598</v>
+        <v>620.69565972446765</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="1">
-        <v>43353</v>
+      <c r="A143" t="s">
+        <v>143</v>
       </c>
       <c r="B143">
-        <v>815.10643813298077</v>
+        <v>632.29267603051824</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
-        <v>43360</v>
+      <c r="A144" t="s">
+        <v>144</v>
       </c>
       <c r="B144">
-        <v>787.60289757164571</v>
+        <v>647.59522792225653</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="1">
-        <v>43367</v>
+      <c r="A145" t="s">
+        <v>145</v>
       </c>
       <c r="B145">
-        <v>782.28541887205574</v>
+        <v>662.48674832957488</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="1">
-        <v>43374</v>
+      <c r="A146" t="s">
+        <v>146</v>
       </c>
       <c r="B146">
-        <v>791.5837352980983</v>
+        <v>655.52581181652408</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="1">
-        <v>43381</v>
+      <c r="A147" t="s">
+        <v>147</v>
       </c>
       <c r="B147">
-        <v>765.95392861336018</v>
+        <v>666.79662236515196</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="1">
-        <v>43388</v>
+      <c r="A148" t="s">
+        <v>148</v>
       </c>
       <c r="B148">
-        <v>725.9039824197971</v>
+        <v>667.49258385097585</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="1">
-        <v>43395</v>
+      <c r="A149" t="s">
+        <v>149</v>
       </c>
       <c r="B149">
-        <v>730.84686682407846</v>
+        <v>656.53882890857199</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="1">
-        <v>43402</v>
+      <c r="A150" t="s">
+        <v>150</v>
       </c>
       <c r="B150">
-        <v>741.70046570027853</v>
+        <v>637.02489361680898</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="1">
-        <v>43409</v>
+      <c r="A151" t="s">
+        <v>151</v>
       </c>
       <c r="B151">
-        <v>751.08515267184805</v>
+        <v>611.63273231566279</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="1">
-        <v>43416</v>
+      <c r="A152" t="s">
+        <v>152</v>
       </c>
       <c r="B152">
-        <v>800.02792906193235</v>
+        <v>630.78232395934276</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="1">
-        <v>43423</v>
+      <c r="A153" t="s">
+        <v>153</v>
       </c>
       <c r="B153">
-        <v>787.03938755942272</v>
+        <v>637.35782870024639</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="1">
-        <v>43430</v>
+      <c r="A154" t="s">
+        <v>154</v>
       </c>
       <c r="B154">
-        <v>767.73217534346827</v>
+        <v>637.69016665472202</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="1">
-        <v>43437</v>
+      <c r="A155" t="s">
+        <v>155</v>
       </c>
       <c r="B155">
-        <v>752.08501420292248</v>
+        <v>647.86693903173727</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="1">
-        <v>43444</v>
+      <c r="A156" t="s">
+        <v>156</v>
       </c>
       <c r="B156">
-        <v>726.98424343186036</v>
+        <v>647.23925589044666</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="1">
-        <v>43451</v>
+      <c r="A157" t="s">
+        <v>157</v>
       </c>
       <c r="B157">
-        <v>734.59308205908474</v>
+        <v>611.53962735366792</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="1">
-        <v>43458</v>
+      <c r="A158" t="s">
+        <v>158</v>
       </c>
       <c r="B158">
-        <v>1219.1759394172991</v>
+        <v>627.59022126999014</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="1">
-        <v>43466</v>
+      <c r="A159" t="s">
+        <v>159</v>
       </c>
       <c r="B159">
-        <v>1225.848100383816</v>
+        <v>651.76653043641181</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="1">
-        <v>43472</v>
+      <c r="A160" t="s">
+        <v>160</v>
       </c>
       <c r="B160">
-        <v>1235.0655021154339</v>
+        <v>645.99078508460877</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="1">
-        <v>43479</v>
+      <c r="A161" t="s">
+        <v>161</v>
       </c>
       <c r="B161">
-        <v>1284.7207961146271</v>
+        <v>697.35619081966865</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="1">
-        <v>43486</v>
+      <c r="A162" t="s">
+        <v>162</v>
       </c>
       <c r="B162">
-        <v>1277.363510860225</v>
+        <v>733.15988648485802</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="1">
-        <v>43493</v>
+      <c r="A163" t="s">
+        <v>163</v>
       </c>
       <c r="B163">
-        <v>1303.8261470423211</v>
+        <v>726.13862731866664</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="1">
-        <v>43500</v>
+      <c r="A164" t="s">
+        <v>164</v>
       </c>
       <c r="B164">
-        <v>903.7709774042097</v>
+        <v>738.28097151024451</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="1">
-        <v>43507</v>
+      <c r="A165" t="s">
+        <v>165</v>
       </c>
       <c r="B165">
-        <v>738.15363953431597</v>
+        <v>650.71374425811962</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="1">
-        <v>43514</v>
+      <c r="A166" t="s">
+        <v>166</v>
       </c>
       <c r="B166">
-        <v>731.35096252733183</v>
+        <v>670.60208486476142</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="1">
-        <v>43521</v>
+      <c r="A167" t="s">
+        <v>167</v>
       </c>
       <c r="B167">
-        <v>760.68086114418907</v>
+        <v>696.09123534562787</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="1">
-        <v>43528</v>
+      <c r="A168" t="s">
+        <v>168</v>
       </c>
       <c r="B168">
-        <v>758.55568777305336</v>
+        <v>676.0518319256721</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="1">
-        <v>43535</v>
+      <c r="A169" t="s">
+        <v>169</v>
       </c>
       <c r="B169">
-        <v>766.9479177502576</v>
+        <v>631.29543120653113</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="1">
-        <v>43542</v>
+      <c r="A170" t="s">
+        <v>170</v>
       </c>
       <c r="B170">
-        <v>766.85584033044336</v>
+        <v>606.74738127305318</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="1">
-        <v>43549</v>
+      <c r="A171" t="s">
+        <v>171</v>
       </c>
       <c r="B171">
-        <v>769.81473571421895</v>
+        <v>613.43317103902336</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="1">
-        <v>43556</v>
+      <c r="A172" t="s">
+        <v>172</v>
       </c>
       <c r="B172">
-        <v>757.72133850130444</v>
+        <v>606.78206888447858</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="2">
-        <v>43563</v>
-      </c>
-      <c r="B173" s="3">
-        <v>740.30655975452896</v>
+      <c r="A173" t="s">
+        <v>173</v>
+      </c>
+      <c r="B173">
+        <v>596.5811061720151</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="1">
-        <v>43570</v>
+      <c r="A174" t="s">
+        <v>174</v>
       </c>
       <c r="B174">
-        <v>785.94086813243359</v>
+        <v>593.32127390154346</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="1">
-        <v>43577</v>
+      <c r="A175" t="s">
+        <v>175</v>
       </c>
       <c r="B175">
-        <v>867.81119980748076</v>
+        <v>601.67054657247672</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="1">
-        <v>43584</v>
+      <c r="A176" t="s">
+        <v>176</v>
       </c>
       <c r="B176">
-        <v>915.9076263061163</v>
+        <v>628.41388763791042</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="1">
-        <v>43591</v>
+      <c r="A177" t="s">
+        <v>177</v>
       </c>
       <c r="B177">
-        <v>846.97261956415366</v>
+        <v>653.23430446832117</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="1">
-        <v>43598</v>
+      <c r="A178" t="s">
+        <v>178</v>
       </c>
       <c r="B178">
-        <v>861.39225682139386</v>
+        <v>644.87798536502271</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="1">
-        <v>43605</v>
+      <c r="A179" t="s">
+        <v>179</v>
       </c>
       <c r="B179">
-        <v>847.58612671688252</v>
+        <v>642.26330328295273</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="1">
-        <v>43612</v>
+      <c r="A180" t="s">
+        <v>180</v>
       </c>
       <c r="B180">
-        <v>910.90755365803193</v>
+        <v>654.55720822583851</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="1">
-        <v>43619</v>
+      <c r="A181" t="s">
+        <v>181</v>
       </c>
       <c r="B181">
-        <v>858.62859151064129</v>
+        <v>671.13824156439932</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="1">
-        <v>43626</v>
+      <c r="A182" t="s">
+        <v>182</v>
       </c>
       <c r="B182">
-        <v>753.15492224720754</v>
+        <v>638.97044990223583</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="1">
-        <v>43633</v>
+      <c r="A183" t="s">
+        <v>183</v>
       </c>
       <c r="B183">
-        <v>753.8766389364672</v>
+        <v>624.9858457928475</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="1">
-        <v>43640</v>
+      <c r="A184" t="s">
+        <v>184</v>
       </c>
       <c r="B184">
-        <v>766.7344364492435</v>
+        <v>597.43927948702844</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="1">
-        <v>43647</v>
+      <c r="A185" t="s">
+        <v>185</v>
       </c>
       <c r="B185">
-        <v>768.00500978602361</v>
+        <v>580.05168006511315</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="1">
-        <v>43654</v>
+      <c r="A186" t="s">
+        <v>186</v>
       </c>
       <c r="B186">
-        <v>761.45379632063327</v>
+        <v>585.77387130784996</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="1">
-        <v>43661</v>
+      <c r="A187" t="s">
+        <v>187</v>
       </c>
       <c r="B187">
-        <v>752.52353704326606</v>
+        <v>587.23721108724476</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="1">
-        <v>43668</v>
+      <c r="A188" t="s">
+        <v>188</v>
       </c>
       <c r="B188">
-        <v>751.17956938954092</v>
+        <v>580.52636414929646</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="1">
-        <v>43675</v>
+      <c r="A189" t="s">
+        <v>189</v>
       </c>
       <c r="B189">
-        <v>749.16822268893281</v>
+        <v>615.0953390780835</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="1">
-        <v>43682</v>
+      <c r="A190" t="s">
+        <v>190</v>
       </c>
       <c r="B190">
-        <v>751.11596433066575</v>
+        <v>617.98089000148241</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="1">
-        <v>43689</v>
+      <c r="A191" t="s">
+        <v>191</v>
       </c>
       <c r="B191">
-        <v>780.02307627161179</v>
+        <v>613.75792531215779</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="1">
-        <v>43696</v>
+      <c r="A192" t="s">
+        <v>192</v>
       </c>
       <c r="B192">
-        <v>751.79718791094012</v>
+        <v>608.15266573518136</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="1">
-        <v>43703</v>
+      <c r="A193" t="s">
+        <v>193</v>
       </c>
       <c r="B193">
-        <v>774.34858495607546</v>
+        <v>635.46586643254227</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="1">
-        <v>43710</v>
+      <c r="A194" t="s">
+        <v>194</v>
       </c>
       <c r="B194">
-        <v>771.62127050195693</v>
+        <v>667.26396843989835</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="1">
-        <v>43717</v>
+      <c r="A195" t="s">
+        <v>195</v>
       </c>
       <c r="B195">
-        <v>761.32170294053742</v>
+        <v>666.67126281438038</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="1">
-        <v>43724</v>
+      <c r="A196" t="s">
+        <v>196</v>
       </c>
       <c r="B196">
-        <v>771.85351337915574</v>
+        <v>688.97343560489799</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="1">
-        <v>43731</v>
+      <c r="A197" t="s">
+        <v>197</v>
       </c>
       <c r="B197">
-        <v>753.97166630052777</v>
+        <v>701.47228066520506</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="1">
-        <v>43738</v>
+      <c r="A198" t="s">
+        <v>198</v>
       </c>
       <c r="B198">
-        <v>739.20374874738081</v>
+        <v>692.66475206625023</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="1">
-        <v>43745</v>
+      <c r="A199" t="s">
+        <v>199</v>
       </c>
       <c r="B199">
-        <v>727.76550942383938</v>
+        <v>694.44988608285382</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="1">
-        <v>43752</v>
+      <c r="A200" t="s">
+        <v>200</v>
       </c>
       <c r="B200">
-        <v>722.27030342933324</v>
+        <v>683.56835393651909</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="1">
-        <v>43759</v>
+      <c r="A201" t="s">
+        <v>201</v>
       </c>
       <c r="B201">
-        <v>734.46125255392565</v>
+        <v>664.85316271682586</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="1">
-        <v>43766</v>
+      <c r="A202" t="s">
+        <v>202</v>
       </c>
       <c r="B202">
-        <v>743.73981660326933</v>
+        <v>641.22311998231214</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="1">
-        <v>43773</v>
+      <c r="A203" t="s">
+        <v>203</v>
       </c>
       <c r="B203">
-        <v>738.59459736072961</v>
+        <v>645.64974272703739</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="1">
-        <v>43780</v>
+      <c r="A204" t="s">
+        <v>204</v>
       </c>
       <c r="B204">
-        <v>734.24174642197647</v>
+        <v>648.6421630472189</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="1">
-        <v>43787</v>
+      <c r="A205" t="s">
+        <v>205</v>
       </c>
       <c r="B205">
-        <v>735.98916247109946</v>
+        <v>652.57542136831114</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="1">
-        <v>43794</v>
+      <c r="A206" t="s">
+        <v>206</v>
       </c>
       <c r="B206">
-        <v>737.11452470510244</v>
+        <v>650.45009795068438</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="1">
-        <v>43801</v>
+      <c r="A207" t="s">
+        <v>207</v>
       </c>
       <c r="B207">
-        <v>763.268516584606</v>
+        <v>637.15685325701736</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="1">
-        <v>43808</v>
+      <c r="A208" t="s">
+        <v>208</v>
       </c>
       <c r="B208">
-        <v>755.26840261883683</v>
+        <v>652.64691977771361</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="1">
-        <v>43815</v>
+      <c r="A209" t="s">
+        <v>209</v>
       </c>
       <c r="B209">
-        <v>782.01439719620123</v>
+        <v>634.43650788541424</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="1">
-        <v>43822</v>
+      <c r="A210" t="s">
+        <v>210</v>
       </c>
       <c r="B210">
-        <v>1034.69849591508</v>
+        <v>674.52756838895255</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="1">
-        <v>43831</v>
+      <c r="A211" t="s">
+        <v>211</v>
       </c>
       <c r="B211">
-        <v>1063.6287995885391</v>
+        <v>738.09771613063515</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="1">
-        <v>43836</v>
+      <c r="A212" t="s">
+        <v>212</v>
       </c>
       <c r="B212">
-        <v>1074.6268518910331</v>
+        <v>731.58926388328041</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="1">
-        <v>43843</v>
+      <c r="A213" t="s">
+        <v>213</v>
       </c>
       <c r="B213">
-        <v>1053.960165653079</v>
+        <v>770.68398126591944</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="1">
-        <v>43850</v>
+      <c r="A214" t="s">
+        <v>214</v>
       </c>
       <c r="B214">
-        <v>1059.809835982139</v>
+        <v>760.99084155295884</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="1">
-        <v>43857</v>
+      <c r="A215" t="s">
+        <v>215</v>
       </c>
       <c r="B215">
-        <v>1105.6864162150571</v>
+        <v>744.52376301883783</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="1">
-        <v>43864</v>
+      <c r="A216" t="s">
+        <v>216</v>
       </c>
       <c r="B216">
-        <v>909.24906443569546</v>
+        <v>707.13735218339048</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="1">
-        <v>43871</v>
+      <c r="A217" t="s">
+        <v>217</v>
       </c>
       <c r="B217">
-        <v>753.80198887255517</v>
+        <v>628.70485529387031</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="1">
-        <v>43878</v>
+      <c r="A218" t="s">
+        <v>218</v>
       </c>
       <c r="B218">
-        <v>762.14272172255892</v>
+        <v>604.61989031968687</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="1">
-        <v>43885</v>
+      <c r="A219" t="s">
+        <v>219</v>
       </c>
       <c r="B219">
-        <v>755.41091734395195</v>
+        <v>596.647451437879</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="1">
-        <v>43892</v>
+      <c r="A220" t="s">
+        <v>220</v>
       </c>
       <c r="B220">
-        <v>765.20827538599724</v>
+        <v>611.03344932302525</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="1">
-        <v>43899</v>
+      <c r="A221" t="s">
+        <v>221</v>
       </c>
       <c r="B221">
-        <v>777.49532923913546</v>
+        <v>596.74680029976025</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" s="1">
-        <v>43906</v>
+      <c r="A222" t="s">
+        <v>222</v>
       </c>
       <c r="B222">
-        <v>777.69432043430879</v>
+        <v>635.08409189311794</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="1">
-        <v>43913</v>
+      <c r="A223" t="s">
+        <v>223</v>
       </c>
       <c r="B223">
-        <v>773.8712635977804</v>
+        <v>627.63568802601321</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="1">
-        <v>43920</v>
+      <c r="A224" t="s">
+        <v>224</v>
       </c>
       <c r="B224">
-        <v>747.39921277919814</v>
+        <v>620.72326412689517</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="1">
-        <v>43927</v>
+      <c r="A225" t="s">
+        <v>225</v>
       </c>
       <c r="B225">
-        <v>772.44110436256403</v>
+        <v>603.84192565418232</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="1">
-        <v>43934</v>
+      <c r="A226" t="s">
+        <v>226</v>
       </c>
       <c r="B226">
-        <v>752.68052045543959</v>
+        <v>624.27841356779663</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="1">
-        <v>43941</v>
+      <c r="A227" t="s">
+        <v>227</v>
       </c>
       <c r="B227">
-        <v>746.65836820786808</v>
+        <v>622.6418602790136</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="1">
-        <v>43948</v>
+      <c r="A228" t="s">
+        <v>228</v>
       </c>
       <c r="B228">
-        <v>845.55964312298261</v>
+        <v>627.26691798263334</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="1">
-        <v>43955</v>
+      <c r="A229" t="s">
+        <v>229</v>
       </c>
       <c r="B229">
-        <v>810.27373179869437</v>
+        <v>589.28879652036881</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="1">
-        <v>43962</v>
+      <c r="A230" t="s">
+        <v>230</v>
       </c>
       <c r="B230">
-        <v>811.91345299918794</v>
+        <v>611.7361399969044</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" s="1">
-        <v>43969</v>
+      <c r="A231" t="s">
+        <v>231</v>
       </c>
       <c r="B231">
-        <v>832.35965207863512</v>
+        <v>634.11978334777393</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="1">
-        <v>43976</v>
+      <c r="A232" t="s">
+        <v>232</v>
       </c>
       <c r="B232">
-        <v>858.14511600791332</v>
+        <v>637.3177477319382</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="1">
-        <v>43983</v>
+      <c r="A233" t="s">
+        <v>233</v>
       </c>
       <c r="B233">
-        <v>815.93883896969419</v>
+        <v>656.45498970949052</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" s="1">
-        <v>43990</v>
+      <c r="A234" t="s">
+        <v>234</v>
       </c>
       <c r="B234">
-        <v>749.05227807096662</v>
+        <v>648.82122458349613</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="1">
-        <v>43997</v>
+      <c r="A235" t="s">
+        <v>235</v>
       </c>
       <c r="B235">
-        <v>752.95637125868598</v>
+        <v>687.17222445708035</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="1">
-        <v>44004</v>
+      <c r="A236" t="s">
+        <v>236</v>
       </c>
       <c r="B236">
-        <v>741.18211490112651</v>
+        <v>671.81712239241006</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" s="1">
-        <v>44011</v>
+      <c r="A237" t="s">
+        <v>237</v>
       </c>
       <c r="B237">
-        <v>743.12600552442927</v>
+        <v>670.97418914578657</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="1">
-        <v>44018</v>
+      <c r="A238" t="s">
+        <v>238</v>
       </c>
       <c r="B238">
-        <v>786.37652146617063</v>
+        <v>659.72403368379241</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="1">
-        <v>44025</v>
+      <c r="A239" t="s">
+        <v>239</v>
       </c>
       <c r="B239">
-        <v>801.04739132038981</v>
+        <v>681.06229063225351</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" s="1">
-        <v>44032</v>
+      <c r="A240" t="s">
+        <v>240</v>
       </c>
       <c r="B240">
-        <v>751.74645933391571</v>
+        <v>655.90298305615079</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" s="1">
-        <v>44039</v>
+      <c r="A241" t="s">
+        <v>241</v>
       </c>
       <c r="B241">
-        <v>797.04457282928604</v>
+        <v>638.96906799659178</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="1">
-        <v>44046</v>
+      <c r="A242" t="s">
+        <v>242</v>
       </c>
       <c r="B242">
-        <v>785.79934817761261</v>
+        <v>626.25000854019254</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="1">
-        <v>44053</v>
+      <c r="A243" t="s">
+        <v>243</v>
       </c>
       <c r="B243">
-        <v>782.5184479692382</v>
+        <v>662.3853467783822</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="1">
-        <v>44060</v>
+      <c r="A244" t="s">
+        <v>244</v>
       </c>
       <c r="B244">
-        <v>756.94478709118869</v>
+        <v>648.40515078962028</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="1">
-        <v>44067</v>
+      <c r="A245" t="s">
+        <v>245</v>
       </c>
       <c r="B245">
-        <v>794.36254208714718</v>
+        <v>632.72154009288261</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="1">
-        <v>44074</v>
+      <c r="A246" t="s">
+        <v>246</v>
       </c>
       <c r="B246">
-        <v>801.09242827580113</v>
+        <v>623.61925355826156</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="1">
-        <v>44081</v>
+      <c r="A247" t="s">
+        <v>247</v>
       </c>
       <c r="B247">
-        <v>783.73260233153451</v>
+        <v>638.65180327135681</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="1">
-        <v>44088</v>
+      <c r="A248" t="s">
+        <v>248</v>
       </c>
       <c r="B248">
-        <v>783.60301915595596</v>
+        <v>638.10625687546872</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="1">
-        <v>44095</v>
+      <c r="A249" t="s">
+        <v>249</v>
       </c>
       <c r="B249">
-        <v>768.23212020882613</v>
+        <v>629.93611883087942</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="1">
-        <v>44102</v>
+      <c r="A250" t="s">
+        <v>250</v>
       </c>
       <c r="B250">
-        <v>800.24320471760791</v>
+        <v>630.52597152138753</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="1">
-        <v>44109</v>
+      <c r="A251" t="s">
+        <v>251</v>
       </c>
       <c r="B251">
-        <v>804.9792116990252</v>
+        <v>633.50114912076594</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="1">
-        <v>44116</v>
+      <c r="A252" t="s">
+        <v>252</v>
       </c>
       <c r="B252">
-        <v>810.1640565843777</v>
+        <v>613.47573315307727</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="1">
-        <v>44123</v>
+      <c r="A253" t="s">
+        <v>253</v>
       </c>
       <c r="B253">
-        <v>790.4289523258625</v>
+        <v>615.21942515381136</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="1">
-        <v>44130</v>
+      <c r="A254" t="s">
+        <v>254</v>
       </c>
       <c r="B254">
-        <v>784.1014648915625</v>
+        <v>620.22079131731311</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="1">
-        <v>44137</v>
+      <c r="A255" t="s">
+        <v>255</v>
       </c>
       <c r="B255">
-        <v>753.61110243683333</v>
+        <v>588.0874548188167</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="1">
-        <v>44144</v>
+      <c r="A256" t="s">
+        <v>256</v>
       </c>
       <c r="B256">
-        <v>727.44382654426329</v>
+        <v>590.07164700489454</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="1">
-        <v>44151</v>
+      <c r="A257" t="s">
+        <v>257</v>
       </c>
       <c r="B257">
-        <v>729.61410203809908</v>
+        <v>611.96031477163694</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="1">
-        <v>44158</v>
+      <c r="A258" t="s">
+        <v>258</v>
       </c>
       <c r="B258">
-        <v>724.47245785533562</v>
+        <v>620.84349079614822</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="1">
-        <v>44165</v>
+      <c r="A259" t="s">
+        <v>259</v>
       </c>
       <c r="B259">
-        <v>732.44810831848133</v>
+        <v>624.18267790140362</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" s="1">
-        <v>44172</v>
+      <c r="A260" t="s">
+        <v>260</v>
       </c>
       <c r="B260">
-        <v>721.56532548529867</v>
+        <v>589.55050538296803</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="1">
-        <v>44179</v>
+      <c r="A261" t="s">
+        <v>261</v>
       </c>
       <c r="B261">
-        <v>737.73171177646589</v>
+        <v>592.89090422153549</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="1">
-        <v>44186</v>
+      <c r="A262" t="s">
+        <v>262</v>
       </c>
       <c r="B262">
-        <v>873.75528567020615</v>
+        <v>613.23198985987574</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="1">
-        <v>44193</v>
+      <c r="A263" t="s">
+        <v>263</v>
       </c>
       <c r="B263">
-        <v>1071.499175374754</v>
+        <v>773.927416646751</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="1">
-        <v>44200</v>
+      <c r="A264" t="s">
+        <v>264</v>
       </c>
       <c r="B264">
-        <v>1047.779668996598</v>
+        <v>782.67093717021817</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="1">
-        <v>44207</v>
+      <c r="A265" t="s">
+        <v>265</v>
       </c>
       <c r="B265">
-        <v>965.54260125113728</v>
+        <v>734.82112041564574</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="1">
-        <v>44214</v>
+      <c r="A266" t="s">
+        <v>266</v>
       </c>
       <c r="B266">
-        <v>1002.833125388198</v>
+        <v>738.9535635304029</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="1">
-        <v>44221</v>
+      <c r="A267" t="s">
+        <v>267</v>
       </c>
       <c r="B267">
-        <v>1071.5159836176349</v>
+        <v>722.96344664729236</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" s="1">
-        <v>44228</v>
+      <c r="A268" t="s">
+        <v>268</v>
       </c>
       <c r="B268">
-        <v>1000.380378983833</v>
+        <v>748.50421848984422</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="1">
-        <v>44235</v>
+      <c r="A269" t="s">
+        <v>269</v>
       </c>
       <c r="B269">
-        <v>776.90791294182793</v>
+        <v>683.09001140811756</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="1">
-        <v>44242</v>
+      <c r="A270" t="s">
+        <v>270</v>
       </c>
       <c r="B270">
-        <v>787.27359558253261</v>
+        <v>616.50980876779681</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="1">
-        <v>44249</v>
+      <c r="A271" t="s">
+        <v>271</v>
       </c>
       <c r="B271">
-        <v>786.35655777394868</v>
+        <v>615.52202379268635</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="1">
-        <v>44256</v>
+      <c r="A272" t="s">
+        <v>272</v>
       </c>
       <c r="B272">
-        <v>835.99411103384398</v>
+        <v>618.31825790809569</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="1">
-        <v>44263</v>
+      <c r="A273" t="s">
+        <v>273</v>
       </c>
       <c r="B273">
-        <v>821.57108331394795</v>
+        <v>647.74267989484383</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="1">
-        <v>44270</v>
+      <c r="A274" t="s">
+        <v>274</v>
       </c>
       <c r="B274">
-        <v>809.11639631496166</v>
+        <v>659.62695497399011</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="1">
-        <v>44277</v>
+      <c r="A275" t="s">
+        <v>275</v>
       </c>
       <c r="B275">
-        <v>820.20880566639994</v>
+        <v>665.78475239750708</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="1">
-        <v>44284</v>
+      <c r="A276" t="s">
+        <v>276</v>
       </c>
       <c r="B276">
-        <v>769.01652061630739</v>
+        <v>674.06291523042046</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="1">
-        <v>44291</v>
+      <c r="A277" t="s">
+        <v>277</v>
       </c>
       <c r="B277">
-        <v>761.94302476715291</v>
+        <v>673.02751328972454</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="1">
-        <v>44298</v>
+      <c r="A278" t="s">
+        <v>278</v>
       </c>
       <c r="B278">
-        <v>743.29224124058601</v>
+        <v>682.7228066591282</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="1">
-        <v>44305</v>
+      <c r="A279" t="s">
+        <v>279</v>
       </c>
       <c r="B279">
-        <v>737.76016622408702</v>
+        <v>683.40109711547768</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="1">
-        <v>44312</v>
+      <c r="A280" t="s">
+        <v>280</v>
       </c>
       <c r="B280">
-        <v>809.67778209634707</v>
+        <v>699.80886055605322</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="1">
-        <v>44319</v>
+      <c r="A281" t="s">
+        <v>281</v>
       </c>
       <c r="B281">
-        <v>811.8198999057123</v>
+        <v>717.71970972495353</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="1">
-        <v>44326</v>
+      <c r="A282" t="s">
+        <v>282</v>
       </c>
       <c r="B282">
-        <v>758.4103446230871</v>
+        <v>697.84060960814634</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="1">
-        <v>44333</v>
+      <c r="A283" t="s">
+        <v>283</v>
       </c>
       <c r="B283">
-        <v>743.06705130806859</v>
+        <v>694.77921410904514</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="1">
-        <v>44340</v>
+      <c r="A284" t="s">
+        <v>284</v>
       </c>
       <c r="B284">
-        <v>750.15483950127941</v>
+        <v>692.80394587576961</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="1">
-        <v>44347</v>
+      <c r="A285" t="s">
+        <v>285</v>
       </c>
       <c r="B285">
-        <v>793.97475907257831</v>
+        <v>671.63374390212982</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="1">
-        <v>44354</v>
+      <c r="A286" t="s">
+        <v>286</v>
       </c>
       <c r="B286">
-        <v>770.21801732166909</v>
+        <v>670.38364565204904</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="1">
-        <v>44361</v>
+      <c r="A287" t="s">
+        <v>287</v>
       </c>
       <c r="B287">
-        <v>772.23590711993529</v>
+        <v>671.75731035440879</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="1">
-        <v>44368</v>
+      <c r="A288" t="s">
+        <v>288</v>
       </c>
       <c r="B288">
-        <v>779.91263614858349</v>
+        <v>609.59959703163361</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" s="1">
-        <v>44375</v>
+      <c r="A289" t="s">
+        <v>289</v>
       </c>
       <c r="B289">
-        <v>753.662824266136</v>
+        <v>608.63562379211965</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" s="1">
-        <v>44382</v>
+      <c r="A290" t="s">
+        <v>290</v>
       </c>
       <c r="B290">
-        <v>813.17924304367659</v>
+        <v>606.80934141887451</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" s="1">
-        <v>44389</v>
+      <c r="A291" t="s">
+        <v>291</v>
       </c>
       <c r="B291">
-        <v>815.97769273927679</v>
+        <v>600.19998488863712</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>292</v>
+      </c>
+      <c r="B292">
+        <v>646.20983901897057</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>293</v>
+      </c>
+      <c r="B293">
+        <v>625.7055886915158</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>294</v>
+      </c>
+      <c r="B294">
+        <v>623.67907953938243</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>295</v>
+      </c>
+      <c r="B295">
+        <v>628.17224739915025</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>296</v>
+      </c>
+      <c r="B296">
+        <v>628.9532941560077</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>297</v>
+      </c>
+      <c r="B297">
+        <v>635.64786280385761</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>298</v>
+      </c>
+      <c r="B298">
+        <v>633.07677958072657</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>299</v>
+      </c>
+      <c r="B299">
+        <v>621.09141623098185</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>300</v>
+      </c>
+      <c r="B300">
+        <v>622.13943827500918</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>301</v>
+      </c>
+      <c r="B301">
+        <v>607.01762747570569</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>302</v>
+      </c>
+      <c r="B302">
+        <v>620.47524375658782</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>303</v>
+      </c>
+      <c r="B303">
+        <v>607.88832072754519</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>304</v>
+      </c>
+      <c r="B304">
+        <v>633.01443581051069</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>305</v>
+      </c>
+      <c r="B305">
+        <v>631.30036080900049</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>306</v>
+      </c>
+      <c r="B306">
+        <v>587.85120391752707</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>307</v>
+      </c>
+      <c r="B307">
+        <v>615.54929206817542</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>308</v>
+      </c>
+      <c r="B308">
+        <v>603.5395068753711</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>309</v>
+      </c>
+      <c r="B309">
+        <v>606.90621112625047</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>310</v>
+      </c>
+      <c r="B310">
+        <v>610.31777991176978</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>311</v>
+      </c>
+      <c r="B311">
+        <v>602.80362062874565</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>312</v>
+      </c>
+      <c r="B312">
+        <v>586.03983931506491</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>313</v>
+      </c>
+      <c r="B313">
+        <v>586.90893362506995</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>314</v>
+      </c>
+      <c r="B314">
+        <v>559.15353895098679</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>315</v>
+      </c>
+      <c r="B315">
+        <v>603.49347519417813</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>316</v>
+      </c>
+      <c r="B316">
+        <v>641.87677945851874</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>317</v>
+      </c>
+      <c r="B317">
+        <v>609.22977828723469</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>318</v>
+      </c>
+      <c r="B318">
+        <v>620.26555092164688</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>319</v>
+      </c>
+      <c r="B319">
+        <v>652.07337312276104</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>320</v>
+      </c>
+      <c r="B320">
+        <v>687.07699781382223</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>321</v>
+      </c>
+      <c r="B321">
+        <v>670.13888878160992</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>322</v>
+      </c>
+      <c r="B322">
+        <v>632.56692231575903</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>323</v>
+      </c>
+      <c r="B323">
+        <v>659.29980807928598</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>324</v>
+      </c>
+      <c r="B324">
+        <v>650.18089604339548</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>325</v>
+      </c>
+      <c r="B325">
+        <v>663.50928501204226</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>326</v>
+      </c>
+      <c r="B326">
+        <v>631.63720252454004</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>327</v>
+      </c>
+      <c r="B327">
+        <v>622.00107294963732</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>328</v>
+      </c>
+      <c r="B328">
+        <v>599.36263734295096</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>329</v>
+      </c>
+      <c r="B329">
+        <v>607.84827929261439</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>330</v>
+      </c>
+      <c r="B330">
+        <v>603.13328655650014</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>331</v>
+      </c>
+      <c r="B331">
+        <v>598.67508410366315</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>332</v>
+      </c>
+      <c r="B332">
+        <v>594.75129367400916</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>333</v>
+      </c>
+      <c r="B333">
+        <v>631.21798363157268</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>334</v>
+      </c>
+      <c r="B334">
+        <v>636.66579372416209</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>335</v>
+      </c>
+      <c r="B335">
+        <v>654.67024832344441</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>336</v>
+      </c>
+      <c r="B336">
+        <v>691.63281120273177</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>337</v>
+      </c>
+      <c r="B337">
+        <v>708.08148906764802</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>338</v>
+      </c>
+      <c r="B338">
+        <v>679.16685663693511</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>339</v>
+      </c>
+      <c r="B339">
+        <v>645.64867071167771</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>340</v>
+      </c>
+      <c r="B340">
+        <v>592.19104665688144</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>341</v>
+      </c>
+      <c r="B341">
+        <v>603.47883534431844</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>342</v>
+      </c>
+      <c r="B342">
+        <v>617.16455936821706</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>343</v>
+      </c>
+      <c r="B343">
+        <v>586.10699737214918</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>344</v>
+      </c>
+      <c r="B344">
+        <v>585.65822042937964</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>345</v>
+      </c>
+      <c r="B345">
+        <v>646.81455543637048</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>346</v>
+      </c>
+      <c r="B346">
+        <v>672.00495918260117</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>347</v>
+      </c>
+      <c r="B347">
+        <v>672.13916583237187</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>348</v>
+      </c>
+      <c r="B348">
+        <v>680.7671447533013</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>349</v>
+      </c>
+      <c r="B349">
+        <v>671.63119357017399</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>350</v>
+      </c>
+      <c r="B350">
+        <v>653.39955126358609</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>351</v>
+      </c>
+      <c r="B351">
+        <v>675.48461552570416</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>352</v>
+      </c>
+      <c r="B352">
+        <v>699.45240662039942</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>353</v>
+      </c>
+      <c r="B353">
+        <v>684.50836925818066</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>354</v>
+      </c>
+      <c r="B354">
+        <v>647.77674992409288</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>355</v>
+      </c>
+      <c r="B355">
+        <v>661.91451315836684</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>356</v>
+      </c>
+      <c r="B356">
+        <v>684.18345195933705</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>357</v>
+      </c>
+      <c r="B357">
+        <v>682.46170575207179</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>358</v>
+      </c>
+      <c r="B358">
+        <v>694.81876640370865</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>359</v>
+      </c>
+      <c r="B359">
+        <v>660.55717971663421</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>360</v>
+      </c>
+      <c r="B360">
+        <v>659.93660391121909</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>361</v>
+      </c>
+      <c r="B361">
+        <v>689.67919181421053</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>362</v>
+      </c>
+      <c r="B362">
+        <v>643.64491482257745</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>363</v>
+      </c>
+      <c r="B363">
+        <v>644.37967699935098</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>364</v>
+      </c>
+      <c r="B364">
+        <v>675.66920648848702</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>365</v>
+      </c>
+      <c r="B365">
+        <v>644.13433026029327</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>366</v>
+      </c>
+      <c r="B366">
+        <v>646.10129112877098</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>367</v>
+      </c>
+      <c r="B367">
+        <v>695.11012224205444</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>368</v>
+      </c>
+      <c r="B368">
+        <v>700.84001412448708</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>369</v>
+      </c>
+      <c r="B369">
+        <v>649.14067135412722</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>370</v>
+      </c>
+      <c r="B370">
+        <v>665.9511152766803</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>371</v>
+      </c>
+      <c r="B371">
+        <v>677.83279572353456</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>372</v>
+      </c>
+      <c r="B372">
+        <v>689.79306798285586</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>373</v>
+      </c>
+      <c r="B373">
+        <v>681.37324616417959</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>374</v>
+      </c>
+      <c r="B374">
+        <v>603.21230421079179</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>375</v>
+      </c>
+      <c r="B375">
+        <v>608.48103128460275</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>376</v>
+      </c>
+      <c r="B376">
+        <v>616.59613551201346</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>377</v>
+      </c>
+      <c r="B377">
+        <v>646.07414426714922</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>378</v>
+      </c>
+      <c r="B378">
+        <v>632.36529353134745</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>379</v>
+      </c>
+      <c r="B379">
+        <v>639.00774533839933</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>380</v>
+      </c>
+      <c r="B380">
+        <v>664.79853494357246</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>381</v>
+      </c>
+      <c r="B381">
+        <v>647.99354130788129</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>382</v>
+      </c>
+      <c r="B382">
+        <v>699.09106424173228</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>383</v>
+      </c>
+      <c r="B383">
+        <v>672.66776182074682</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>384</v>
+      </c>
+      <c r="B384">
+        <v>661.88367840033254</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>385</v>
+      </c>
+      <c r="B385">
+        <v>663.41532869227319</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>386</v>
+      </c>
+      <c r="B386">
+        <v>663.73746092576005</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>387</v>
+      </c>
+      <c r="B387">
+        <v>666.74894623775322</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>388</v>
+      </c>
+      <c r="B388">
+        <v>664.4694220485311</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>389</v>
+      </c>
+      <c r="B389">
+        <v>662.99320085752538</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>390</v>
+      </c>
+      <c r="B390">
+        <v>670.09556901456358</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>391</v>
+      </c>
+      <c r="B391">
+        <v>678.00029223649813</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>392</v>
+      </c>
+      <c r="B392">
+        <v>666.40926210797443</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>393</v>
+      </c>
+      <c r="B393">
+        <v>638.98971238781462</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>394</v>
+      </c>
+      <c r="B394">
+        <v>658.56224061849241</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>395</v>
+      </c>
+      <c r="B395">
+        <v>657.00817500255573</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>396</v>
+      </c>
+      <c r="B396">
+        <v>654.0564582930192</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>397</v>
+      </c>
+      <c r="B397">
+        <v>641.28014857283551</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>398</v>
+      </c>
+      <c r="B398">
+        <v>668.48132936433933</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>399</v>
+      </c>
+      <c r="B399">
+        <v>631.57117616390428</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>400</v>
+      </c>
+      <c r="B400">
+        <v>651.98416060090676</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>401</v>
+      </c>
+      <c r="B401">
+        <v>669.08650821977074</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>402</v>
+      </c>
+      <c r="B402">
+        <v>665.24269037018905</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>403</v>
+      </c>
+      <c r="B403">
+        <v>629.88083464472663</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>404</v>
+      </c>
+      <c r="B404">
+        <v>635.62460100890428</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>405</v>
+      </c>
+      <c r="B405">
+        <v>632.86477698838314</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>406</v>
+      </c>
+      <c r="B406">
+        <v>677.51328002043863</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>407</v>
+      </c>
+      <c r="B407">
+        <v>671.35394870297341</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>408</v>
+      </c>
+      <c r="B408">
+        <v>675.51326353123602</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>409</v>
+      </c>
+      <c r="B409">
+        <v>683.47554849995765</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>410</v>
+      </c>
+      <c r="B410">
+        <v>624.24834638632888</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>411</v>
+      </c>
+      <c r="B411">
+        <v>619.14796324424242</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>412</v>
+      </c>
+      <c r="B412">
+        <v>618.77696167652391</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>413</v>
+      </c>
+      <c r="B413">
+        <v>627.47900196922933</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>414</v>
+      </c>
+      <c r="B414">
+        <v>638.08932812938508</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>415</v>
+      </c>
+      <c r="B415">
+        <v>676.09891302040319</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>416</v>
+      </c>
+      <c r="B416">
+        <v>680.74537435735522</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>417</v>
+      </c>
+      <c r="B417">
+        <v>677.58436405313785</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>418</v>
+      </c>
+      <c r="B418">
+        <v>694.05416174010065</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>419</v>
+      </c>
+      <c r="B419">
+        <v>713.44122228284505</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>420</v>
+      </c>
+      <c r="B420">
+        <v>697.24042010163373</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>421</v>
+      </c>
+      <c r="B421">
+        <v>731.59729607727877</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>422</v>
+      </c>
+      <c r="B422">
+        <v>669.79175154282336</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>423</v>
+      </c>
+      <c r="B423">
+        <v>667.33939397741949</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>424</v>
+      </c>
+      <c r="B424">
+        <v>676.97832273606923</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>425</v>
+      </c>
+      <c r="B425">
+        <v>683.70998963308671</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>426</v>
+      </c>
+      <c r="B426">
+        <v>604.65305143744808</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>427</v>
+      </c>
+      <c r="B427">
+        <v>606.52634720835965</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>428</v>
+      </c>
+      <c r="B428">
+        <v>611.83053655488118</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>429</v>
+      </c>
+      <c r="B429">
+        <v>618.20011474516139</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>430</v>
+      </c>
+      <c r="B430">
+        <v>602.6873043951</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>431</v>
+      </c>
+      <c r="B431">
+        <v>638.97487710795463</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>432</v>
+      </c>
+      <c r="B432">
+        <v>641.49749119151977</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>433</v>
+      </c>
+      <c r="B433">
+        <v>649.51756463083507</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>434</v>
+      </c>
+      <c r="B434">
+        <v>673.48498105667886</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>435</v>
+      </c>
+      <c r="B435">
+        <v>668.61932404876916</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>436</v>
+      </c>
+      <c r="B436">
+        <v>687.31799549984794</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>437</v>
+      </c>
+      <c r="B437">
+        <v>696.02106317985795</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>438</v>
+      </c>
+      <c r="B438">
+        <v>650.65278098578881</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>439</v>
+      </c>
+      <c r="B439">
+        <v>672.18648761492523</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>440</v>
+      </c>
+      <c r="B440">
+        <v>677.29767898119394</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>441</v>
+      </c>
+      <c r="B441">
+        <v>655.84679536316878</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>442</v>
+      </c>
+      <c r="B442">
+        <v>629.10963820700624</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>443</v>
+      </c>
+      <c r="B443">
+        <v>626.73492852308641</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>444</v>
+      </c>
+      <c r="B444">
+        <v>605.55452770387535</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>445</v>
+      </c>
+      <c r="B445">
+        <v>579.19999969057596</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>446</v>
+      </c>
+      <c r="B446">
+        <v>577.99910131379784</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>447</v>
+      </c>
+      <c r="B447">
+        <v>615.99100411514837</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>448</v>
+      </c>
+      <c r="B448">
+        <v>611.99514142433532</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>449</v>
+      </c>
+      <c r="B449">
+        <v>597.7801566629164</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>450</v>
+      </c>
+      <c r="B450">
+        <v>619.42820654700427</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>451</v>
+      </c>
+      <c r="B451">
+        <v>628.24070756411129</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>452</v>
+      </c>
+      <c r="B452">
+        <v>641.73696882847435</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>453</v>
+      </c>
+      <c r="B453">
+        <v>642.59745596093637</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>454</v>
+      </c>
+      <c r="B454">
+        <v>627.11222375288776</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>455</v>
+      </c>
+      <c r="B455">
+        <v>613.67450645617612</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>456</v>
+      </c>
+      <c r="B456">
+        <v>615.35200169858877</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>457</v>
+      </c>
+      <c r="B457">
+        <v>641.57975525511233</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>458</v>
+      </c>
+      <c r="B458">
+        <v>602.58609040224894</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>459</v>
+      </c>
+      <c r="B459">
+        <v>604.89912028505933</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>460</v>
+      </c>
+      <c r="B460">
+        <v>611.98138036623277</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>461</v>
+      </c>
+      <c r="B461">
+        <v>620.86951342665861</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>462</v>
+      </c>
+      <c r="B462">
+        <v>646.89861282061349</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>463</v>
+      </c>
+      <c r="B463">
+        <v>629.44509076779798</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>464</v>
+      </c>
+      <c r="B464">
+        <v>620.28900877598755</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>465</v>
+      </c>
+      <c r="B465">
+        <v>622.97591969870052</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>466</v>
+      </c>
+      <c r="B466">
+        <v>633.82873572084532</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>467</v>
+      </c>
+      <c r="B467">
+        <v>642.05645209466729</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>468</v>
+      </c>
+      <c r="B468">
+        <v>663.65109772330891</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>469</v>
+      </c>
+      <c r="B469">
+        <v>588.74937346636557</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>470</v>
+      </c>
+      <c r="B470">
+        <v>592.96129555687173</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>471</v>
+      </c>
+      <c r="B471">
+        <v>614.87959473048625</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>472</v>
+      </c>
+      <c r="B472">
+        <v>622.06136073110417</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>473</v>
+      </c>
+      <c r="B473">
+        <v>631.14357602513508</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>474</v>
+      </c>
+      <c r="B474">
+        <v>632.26676958299436</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>475</v>
+      </c>
+      <c r="B475">
+        <v>641.58674664187117</v>
       </c>
     </row>
   </sheetData>
